--- a/data/trans_dic/LAWTONB_2R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 33,5</t>
+          <t>24,14; 33,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,4; 35,75</t>
+          <t>26,41; 35,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,94; 31,66</t>
+          <t>23,1; 31,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,83; 43,42</t>
+          <t>33,24; 43,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,61; 39,56</t>
+          <t>31,71; 39,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,48; 44,32</t>
+          <t>36,89; 44,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,34; 43,37</t>
+          <t>34,47; 43,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,68; 56,23</t>
+          <t>50,01; 56,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,85; 35,75</t>
+          <t>29,92; 36,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,7; 40,05</t>
+          <t>33,45; 39,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31,02; 37,33</t>
+          <t>31,02; 37,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,25; 50,55</t>
+          <t>45,11; 50,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 24,67</t>
+          <t>10,1; 25,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 25,55</t>
+          <t>10,69; 25,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 16,98</t>
+          <t>8,02; 16,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 20,48</t>
+          <t>13,01; 20,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 35,04</t>
+          <t>12,23; 36,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 37,09</t>
+          <t>15,95; 35,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,01; 37,4</t>
+          <t>22,56; 37,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 25,04</t>
+          <t>4,08; 24,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 25,25</t>
+          <t>12,37; 26,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 26,57</t>
+          <t>14,36; 26,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 25,05</t>
+          <t>16,41; 25,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 20,77</t>
+          <t>6,25; 20,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 45,08</t>
+          <t>13,75; 44,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,96</t>
+          <t>0,0; 25,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 27,79</t>
+          <t>4,51; 26,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 21,72</t>
+          <t>9,9; 21,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,43; 62,09</t>
+          <t>23,4; 61,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 45,66</t>
+          <t>4,89; 42,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 48,02</t>
+          <t>9,31; 45,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 28,98</t>
+          <t>13,96; 27,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,78; 46,06</t>
+          <t>21,1; 45,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 26,17</t>
+          <t>4,65; 27,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 28,72</t>
+          <t>9,77; 30,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 22,42</t>
+          <t>13,37; 22,05</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,53</t>
+          <t>22,83; 30,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,08; 31,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 24,37</t>
+          <t>18,24; 24,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 28,04</t>
+          <t>22,63; 28,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,72; 38,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,66; 42,02</t>
+          <t>34,93; 42,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,14; 39,51</t>
+          <t>31,76; 39,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,49; 42,25</t>
+          <t>17,38; 42,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,46</t>
+          <t>28,02; 33,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,66; 36,03</t>
+          <t>30,68; 36,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,95; 32,03</t>
+          <t>26,87; 32,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,9; 34,75</t>
+          <t>19,67; 34,91</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>107231</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>127914</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>96349</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>101533</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>207673</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>257932</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>214634</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>264671</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>314904</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>385846</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>310982</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>366204</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>90103; 123907</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>109426; 148457</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>81762; 112689</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>88350; 115384</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>186384; 233314</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>234104; 283599</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>191227; 239097</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>249012; 281018</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>287480; 346933</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>350902; 418897</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>281903; 340091</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>344540; 385888</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14188</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20015</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22876</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44985</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13499</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21153</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54734</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59339</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27687</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>41168</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>77611</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>104324</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8893; 22884</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12689; 30299</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15432; 31942</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35477; 55591</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7611; 22589</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13254; 29495</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42423; 70263</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18546; 112219</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>18588; 39565</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28962; 53991</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>62448; 96297</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>45437; 150589</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10790</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5118</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15207</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11573</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8137</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14949</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22362</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6452</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13256</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30156</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5665; 18171</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6831</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1895; 11042</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10217; 22060</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6290; 16546</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1087; 9472</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3134; 15393</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9956; 19894</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14364; 30893</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2272; 13199</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7396; 23297</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23346; 38496</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>132209</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149957</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>124343</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>232744</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>283509</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>277505</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>338959</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>364953</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>433465</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>401848</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>500685</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>114697; 151761</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>129139; 173471</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>107307; 144677</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>145226; 179702</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>207894; 257407</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>258432; 313226</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>246635; 307270</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>177879; 432959</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>330432; 395194</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>398734; 467848</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>366790; 439137</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>327415; 581149</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>